--- a/SurveyData/School_1a_2021.xlsx
+++ b/SurveyData/School_1a_2021.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/SurveyData/School_1a_2021.xlsx
+++ b/SurveyData/School_1a_2021.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Word_Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sent_Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42472,7 +42472,7 @@
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>A parent/ carer of primary school children</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
@@ -46569,101 +46569,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>offer added-sugar free days</t>
+          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>offer fruit only</t>
+          <t>offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>or fruit-based puddings</t>
+          <t>offer added-sugar free days</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>offer only high quality grass-fed meat options offer at least one portion of fresh fruit and vegetables everyday</t>
+          <t>offer fruit only</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>or fruit-based puddings</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>please specify below: offer at least one portion of fresh fruit and vegetables everyday</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example) offer at least one portion of fresh fruit and vegetables everyday</t>
+          <t>please specify below:</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>offer only high quality grass-fed meat options</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -46704,97 +46704,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>contain  seasonally sourced ingredients</t>
+          <t>minimise waste</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>meet all dietary requirements</t>
+          <t>should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>are cooked from scratch in the school kitchen</t>
+          <t>contain  seasonally sourced ingredients</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>minimise waste</t>
+          <t>meet all dietary requirements</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>contain organically sourced ingredients</t>
+          <t>are cooked from scratch in the school kitchen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+          <t>contain organically sourced ingredients</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+          <t>offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options minimise waste</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SurveyData/School_1a_2021.xlsx
+++ b/SurveyData/School_1a_2021.xlsx
@@ -9,6 +9,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46800,4 +46802,227 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>It depends</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>please specify:</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Do meat-free days* sound like a good idea to you?
+*Days when school lunches (packed and served by caterers) at school offer plant-based protein alternatives and contain no meat content in an attempt to minimise impact on the environment - Selected Choice</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/SurveyData/School_1a_2021.xlsx
+++ b/SurveyData/School_1a_2021.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q36_TEXT_SUMMARY" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,28 +24,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
       <b val="1"/>
@@ -57,27 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -87,27 +59,19 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -465,14 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:FF160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2132,10 +2096,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43907.0822337963</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>43907.08817129629</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -2159,7 +2123,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>43907.08818690972</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -2324,10 +2288,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43907.19163194444</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>43907.20684027778</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -2351,7 +2315,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>43907.20686837963</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -2608,10 +2572,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43907.63655092593</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>43907.6475</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -2635,7 +2599,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>43907.64752518519</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -2947,10 +2911,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43907.63305555555</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>43907.66246527778</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -2974,7 +2938,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>43907.66249309028</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -3271,10 +3235,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43908.71003472222</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>43908.72355324074</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -3298,7 +3262,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>43908.72357773148</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -3419,10 +3383,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43909.25789351852</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>43909.27782407407</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -3446,7 +3410,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>43909.27784444444</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -3785,10 +3749,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43909.4177662037</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>43909.42436342593</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -3812,7 +3776,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>43909.42437258102</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -3983,10 +3947,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43909.63155092593</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>43909.64771990741</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -4010,7 +3974,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>43909.64774361111</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -4327,10 +4291,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43907.43261574074</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>43907.43461805556</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -4354,7 +4318,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>43914.43473385417</v>
       </c>
       <c r="I11" t="inlineStr">
@@ -4399,10 +4363,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43908.70846064815</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>43908.71291666666</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -4426,7 +4390,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>43915.71308966435</v>
       </c>
       <c r="I12" t="inlineStr">
@@ -4682,10 +4646,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43909.20579861111</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>43909.22030092592</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -4709,7 +4673,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>43916.22034481481</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -4798,10 +4762,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>43952.47989583333</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>43952.49263888889</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -4825,7 +4789,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>43952.4926467824</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -5152,10 +5116,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>43954.10371527778</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>43954.12880787037</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -5179,7 +5143,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>43954.12881975694</v>
       </c>
       <c r="I15" t="inlineStr">
@@ -5511,10 +5475,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>43954.37210648148</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>43954.37824074074</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -5538,7 +5502,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>43954.37826371528</v>
       </c>
       <c r="I16" t="inlineStr">
@@ -5734,10 +5698,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>43954.38251157408</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>43954.39516203704</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -5761,7 +5725,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>43954.39517020834</v>
       </c>
       <c r="I17" t="inlineStr">
@@ -5957,10 +5921,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>43950.56077546296</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>43950.56097222222</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -5984,7 +5948,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>43957.56118228009</v>
       </c>
       <c r="I18" t="inlineStr">
@@ -6014,10 +5978,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>43952.52621527778</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>43952.53465277778</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -6041,7 +6005,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>43959.53472784723</v>
       </c>
       <c r="I19" t="inlineStr">
@@ -6322,10 +6286,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>43952.73178240741</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>43952.73225694444</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -6349,7 +6313,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>43959.73256900463</v>
       </c>
       <c r="I20" t="inlineStr">
@@ -6379,10 +6343,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>43950.55797453703</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>43954.83483796296</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -6406,7 +6370,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>43961.83486803241</v>
       </c>
       <c r="I21" t="inlineStr">
@@ -6436,10 +6400,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>43977.18635416667</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>43977.19074074074</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -6463,7 +6427,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <v>43977.1907553125</v>
       </c>
       <c r="I22" t="inlineStr">
@@ -6664,10 +6628,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>43977.18920138889</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>43977.19570601852</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -6691,7 +6655,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>43977.19571532407</v>
       </c>
       <c r="I23" t="inlineStr">
@@ -6892,10 +6856,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>43977.2019212963</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>43977.2066087963</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -6919,7 +6883,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>43977.20662902778</v>
       </c>
       <c r="I24" t="inlineStr">
@@ -7120,10 +7084,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>43977.21146990741</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>43977.22357638889</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -7147,7 +7111,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>43977.22358429398</v>
       </c>
       <c r="I25" t="inlineStr">
@@ -7463,10 +7427,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>43977.26116898148</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>43977.27327546296</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -7490,7 +7454,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>43977.27329960648</v>
       </c>
       <c r="I26" t="inlineStr">
@@ -7832,10 +7796,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>43977.31832175926</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>43977.3496875</v>
       </c>
       <c r="C27" t="inlineStr">
@@ -7859,7 +7823,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="3" t="n">
         <v>43977.34969966435</v>
       </c>
       <c r="I27" t="inlineStr">
@@ -8191,10 +8155,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>43977.44787037037</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
         <v>43977.45863425926</v>
       </c>
       <c r="C28" t="inlineStr">
@@ -8218,7 +8182,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3" t="n">
         <v>43977.45866359954</v>
       </c>
       <c r="I28" t="inlineStr">
@@ -8515,10 +8479,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>43977.46747685185</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>43977.49230324074</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -8542,7 +8506,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="3" t="n">
         <v>43977.49232673611</v>
       </c>
       <c r="I29" t="inlineStr">
@@ -8909,10 +8873,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>43978.13425925926</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>43978.14453703703</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -8936,7 +8900,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3" t="n">
         <v>43978.14456649306</v>
       </c>
       <c r="I30" t="inlineStr">
@@ -9132,10 +9096,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>43979.23372685185</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <v>43979.24516203703</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -9159,7 +9123,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3" t="n">
         <v>43979.2451865625</v>
       </c>
       <c r="I31" t="inlineStr">
@@ -9511,10 +9475,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>43979.54667824074</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <v>43979.55584490741</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -9538,7 +9502,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>43979.55586630787</v>
       </c>
       <c r="I32" t="inlineStr">
@@ -9729,10 +9693,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>43983.13789351852</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>43983.14693287037</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -9756,7 +9720,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="3" t="n">
         <v>43983.14694719907</v>
       </c>
       <c r="I33" t="inlineStr">
@@ -10063,10 +10027,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>43977.11368055556</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <v>43977.11518518518</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -10090,7 +10054,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="3" t="n">
         <v>43984.11525518518</v>
       </c>
       <c r="I34" t="inlineStr">
@@ -10191,10 +10155,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>43977.61865740741</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>43977.62350694444</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -10218,7 +10182,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="3" t="n">
         <v>43984.62359583333</v>
       </c>
       <c r="I35" t="inlineStr">
@@ -10346,10 +10310,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>43981.35037037037</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3" t="n">
         <v>43981.35625</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -10373,7 +10337,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3" t="n">
         <v>43988.35633715278</v>
       </c>
       <c r="I36" t="inlineStr">
@@ -10669,10 +10633,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>43992.23128472222</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3" t="n">
         <v>43992.26842592593</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -10696,7 +10660,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3" t="n">
         <v>43992.26845216435</v>
       </c>
       <c r="I37" t="inlineStr">
@@ -11077,10 +11041,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>43992.29440972222</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3" t="n">
         <v>43992.31863425926</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -11104,7 +11068,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3" t="n">
         <v>43992.31865738426</v>
       </c>
       <c r="I38" t="inlineStr">
@@ -11461,10 +11425,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>43993.09226851852</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
         <v>43993.10040509259</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -11488,7 +11452,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="3" t="n">
         <v>43993.10041540509</v>
       </c>
       <c r="I39" t="inlineStr">
@@ -11756,10 +11720,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>43993.32589120371</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3" t="n">
         <v>43993.35045138889</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -11783,7 +11747,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3" t="n">
         <v>43993.35047737268</v>
       </c>
       <c r="I40" t="inlineStr">
@@ -12165,10 +12129,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>43993.59826388889</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3" t="n">
         <v>43993.63120370371</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -12192,7 +12156,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>43993.63123314815</v>
       </c>
       <c r="I41" t="inlineStr">
@@ -12509,10 +12473,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>43995.32488425926</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
         <v>43995.32935185185</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -12536,7 +12500,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>43995.32937016204</v>
       </c>
       <c r="I42" t="inlineStr">
@@ -12712,10 +12676,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>43996.58071759259</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3" t="n">
         <v>43996.58907407407</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -12739,7 +12703,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="3" t="n">
         <v>43996.58908357639</v>
       </c>
       <c r="I43" t="inlineStr">
@@ -13071,10 +13035,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>43997.25547453704</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
         <v>43997.26436342593</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -13098,7 +13062,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3" t="n">
         <v>43997.26437344908</v>
       </c>
       <c r="I44" t="inlineStr">
@@ -13400,10 +13364,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>43992.48706018519</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3" t="n">
         <v>43992.50412037037</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -13427,7 +13391,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3" t="n">
         <v>43999.50415401621</v>
       </c>
       <c r="I45" t="inlineStr">
@@ -13738,10 +13702,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>43992.52429398148</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>43992.55081018519</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -13765,7 +13729,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3" t="n">
         <v>43999.55104164352</v>
       </c>
       <c r="I46" t="inlineStr">
@@ -14107,10 +14071,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>44000.22230324074</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="3" t="n">
         <v>44000.22710648148</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -14134,7 +14098,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="3" t="n">
         <v>44000.22712155092</v>
       </c>
       <c r="I47" t="inlineStr">
@@ -14285,10 +14249,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44000.28325231482</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="3" t="n">
         <v>44000.28928240741</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -14312,7 +14276,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3" t="n">
         <v>44000.28928935185</v>
       </c>
       <c r="I48" t="inlineStr">
@@ -14634,10 +14598,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>44000.25168981482</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="3" t="n">
         <v>44000.34653935185</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -14661,7 +14625,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="3" t="n">
         <v>44000.34656407408</v>
       </c>
       <c r="I49" t="inlineStr">
@@ -14837,10 +14801,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>44000.41196759259</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="3" t="n">
         <v>44000.42592592593</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -14864,7 +14828,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3" t="n">
         <v>44000.42594861111</v>
       </c>
       <c r="I50" t="inlineStr">
@@ -15176,10 +15140,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>44000.42527777778</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="3" t="n">
         <v>44000.43884259259</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -15203,7 +15167,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="3" t="n">
         <v>44000.43886795139</v>
       </c>
       <c r="I51" t="inlineStr">
@@ -15510,10 +15474,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>44000.60560185185</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="3" t="n">
         <v>44000.61289351852</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -15537,7 +15501,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3" t="n">
         <v>44000.61292009259</v>
       </c>
       <c r="I52" t="inlineStr">
@@ -15854,10 +15818,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>44002.08609953704</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="3" t="n">
         <v>44002.09612268519</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -15881,7 +15845,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="3" t="n">
         <v>44002.09614571759</v>
       </c>
       <c r="I53" t="inlineStr">
@@ -16188,10 +16152,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>44003.47304398148</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="3" t="n">
         <v>44003.48864583333</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -16215,7 +16179,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="3" t="n">
         <v>44003.48866482639</v>
       </c>
       <c r="I54" t="inlineStr">
@@ -16537,10 +16501,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>44004.56658564815</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="3" t="n">
         <v>44004.58546296296</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -16564,7 +16528,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="3" t="n">
         <v>44004.58547353009</v>
       </c>
       <c r="I55" t="inlineStr">
@@ -16881,10 +16845,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>44004.59243055555</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3" t="n">
         <v>44004.59690972222</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -16908,7 +16872,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="3" t="n">
         <v>44004.59692229167</v>
       </c>
       <c r="I56" t="inlineStr">
@@ -17084,10 +17048,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>44005.13513888889</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>44005.15103009259</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -17111,7 +17075,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3" t="n">
         <v>44005.15105599537</v>
       </c>
       <c r="I57" t="inlineStr">
@@ -17463,10 +17427,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>44005.16482638889</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="3" t="n">
         <v>44005.17086805555</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -17490,7 +17454,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3" t="n">
         <v>44005.17087883102</v>
       </c>
       <c r="I58" t="inlineStr">
@@ -17681,10 +17645,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>44005.18099537037</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="3" t="n">
         <v>44005.19716435186</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -17708,7 +17672,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="3" t="n">
         <v>44005.19719266204</v>
       </c>
       <c r="I59" t="inlineStr">
@@ -18025,10 +17989,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>44005.22653935185</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="3" t="n">
         <v>44005.23193287037</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -18052,7 +18016,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3" t="n">
         <v>44005.23194163194</v>
       </c>
       <c r="I60" t="inlineStr">
@@ -18243,10 +18207,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>44005.2227199074</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3" t="n">
         <v>44005.23199074074</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -18270,7 +18234,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="3" t="n">
         <v>44005.2320146875</v>
       </c>
       <c r="I61" t="inlineStr">
@@ -18582,10 +18546,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>44005.21571759259</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="3" t="n">
         <v>44005.23253472222</v>
       </c>
       <c r="C62" t="inlineStr">
@@ -18609,7 +18573,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="3" t="n">
         <v>44005.23254306713</v>
       </c>
       <c r="I62" t="inlineStr">
@@ -18946,10 +18910,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>44005.23773148148</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="3" t="n">
         <v>44005.245625</v>
       </c>
       <c r="C63" t="inlineStr">
@@ -18973,7 +18937,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="3" t="n">
         <v>44005.24565118056</v>
       </c>
       <c r="I63" t="inlineStr">
@@ -19164,10 +19128,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>44005.24184027778</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="3" t="n">
         <v>44005.2469212963</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -19191,7 +19155,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="3" t="n">
         <v>44005.24694325231</v>
       </c>
       <c r="I64" t="inlineStr">
@@ -19382,10 +19346,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>44005.24543981482</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="3" t="n">
         <v>44005.24857638889</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -19409,7 +19373,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="3" t="n">
         <v>44005.24859085648</v>
       </c>
       <c r="I65" t="inlineStr">
@@ -19580,10 +19544,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>44005.3509837963</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="3" t="n">
         <v>44005.36503472222</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -19607,7 +19571,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="3" t="n">
         <v>44005.36505418982</v>
       </c>
       <c r="I66" t="inlineStr">
@@ -19924,10 +19888,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>44005.36724537037</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="3" t="n">
         <v>44005.37219907407</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -19951,7 +19915,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="3" t="n">
         <v>44005.37221877315</v>
       </c>
       <c r="I67" t="inlineStr">
@@ -20142,10 +20106,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>44005.52625</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>44005.52893518518</v>
       </c>
       <c r="C68" t="inlineStr">
@@ -20169,7 +20133,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="3" t="n">
         <v>44005.52895637731</v>
       </c>
       <c r="I68" t="inlineStr">
@@ -20360,10 +20324,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>44005.56476851852</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="3" t="n">
         <v>44005.5740625</v>
       </c>
       <c r="C69" t="inlineStr">
@@ -20387,7 +20351,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="3" t="n">
         <v>44005.57407461805</v>
       </c>
       <c r="I69" t="inlineStr">
@@ -20734,10 +20698,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>44005.5937037037</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3" t="n">
         <v>44005.60773148148</v>
       </c>
       <c r="C70" t="inlineStr">
@@ -20761,7 +20725,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="3" t="n">
         <v>44005.60776310185</v>
       </c>
       <c r="I70" t="inlineStr">
@@ -21068,10 +21032,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>44005.60733796296</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="3" t="n">
         <v>44005.61548611111</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -21095,7 +21059,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="3" t="n">
         <v>44005.61549258102</v>
       </c>
       <c r="I71" t="inlineStr">
@@ -21407,10 +21371,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>44005.6136574074</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="3" t="n">
         <v>44005.6220949074</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -21434,7 +21398,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="3" t="n">
         <v>44005.622109375</v>
       </c>
       <c r="I72" t="inlineStr">
@@ -21726,10 +21690,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>44005.62648148148</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3" t="n">
         <v>44005.63844907407</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -21753,7 +21717,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="3" t="n">
         <v>44005.63847189815</v>
       </c>
       <c r="I73" t="inlineStr">
@@ -21989,10 +21953,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>44005.65299768518</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="3" t="n">
         <v>44005.66932870371</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -22016,7 +21980,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="3" t="n">
         <v>44005.6693539699</v>
       </c>
       <c r="I74" t="inlineStr">
@@ -22363,10 +22327,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>44006.26925925926</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3" t="n">
         <v>44006.27668981482</v>
       </c>
       <c r="C75" t="inlineStr">
@@ -22390,7 +22354,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="3" t="n">
         <v>44006.27670810185</v>
       </c>
       <c r="I75" t="inlineStr">
@@ -22571,10 +22535,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>44006.2678125</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3" t="n">
         <v>44006.28547453704</v>
       </c>
       <c r="C76" t="inlineStr">
@@ -22598,7 +22562,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="3" t="n">
         <v>44006.28550452546</v>
       </c>
       <c r="I76" t="inlineStr">
@@ -22930,10 +22894,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>44006.27328703704</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="3" t="n">
         <v>44006.28769675926</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -22957,7 +22921,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="3" t="n">
         <v>44006.28771755787</v>
       </c>
       <c r="I77" t="inlineStr">
@@ -23289,10 +23253,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>44006.30466435185</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="3" t="n">
         <v>44006.3090625</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -23316,7 +23280,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="3" t="n">
         <v>44006.30907458333</v>
       </c>
       <c r="I78" t="inlineStr">
@@ -23512,10 +23476,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>44006.27909722222</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="3" t="n">
         <v>44006.30993055556</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -23539,7 +23503,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="3" t="n">
         <v>44006.30995471065</v>
       </c>
       <c r="I79" t="inlineStr">
@@ -23856,10 +23820,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>44006.33453703704</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="3" t="n">
         <v>44006.34483796296</v>
       </c>
       <c r="C80" t="inlineStr">
@@ -23883,7 +23847,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="3" t="n">
         <v>44006.34485982639</v>
       </c>
       <c r="I80" t="inlineStr">
@@ -24064,10 +24028,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>44006.3497337963</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="3" t="n">
         <v>44006.35856481481</v>
       </c>
       <c r="C81" t="inlineStr">
@@ -24091,7 +24055,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="3" t="n">
         <v>44006.35858388889</v>
       </c>
       <c r="I81" t="inlineStr">
@@ -24403,10 +24367,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>44006.34960648148</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="3" t="n">
         <v>44006.35894675926</v>
       </c>
       <c r="C82" t="inlineStr">
@@ -24430,7 +24394,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="3" t="n">
         <v>44006.35897068287</v>
       </c>
       <c r="I82" t="inlineStr">
@@ -24727,10 +24691,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>44006.14715277778</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="3" t="n">
         <v>44006.39626157407</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -24754,7 +24718,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="3" t="n">
         <v>44006.39628637731</v>
       </c>
       <c r="I83" t="inlineStr">
@@ -25116,10 +25080,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>44006.38483796296</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="3" t="n">
         <v>44006.40178240741</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -25143,7 +25107,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="3" t="n">
         <v>44006.40178849537</v>
       </c>
       <c r="I84" t="inlineStr">
@@ -25430,10 +25394,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>44006.43780092592</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="3" t="n">
         <v>44006.44270833334</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -25457,7 +25421,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="3" t="n">
         <v>44006.44273447917</v>
       </c>
       <c r="I85" t="inlineStr">
@@ -25653,10 +25617,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>44006.60729166667</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="3" t="n">
         <v>44006.61503472222</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -25680,7 +25644,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="3" t="n">
         <v>44006.61503972222</v>
       </c>
       <c r="I86" t="inlineStr">
@@ -25861,10 +25825,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>44006.61966435185</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="3" t="n">
         <v>44006.63341435185</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -25888,7 +25852,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H87" s="2" t="n">
+      <c r="H87" s="3" t="n">
         <v>44006.63342724537</v>
       </c>
       <c r="I87" t="inlineStr">
@@ -26190,10 +26154,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>44006.61908564815</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="3" t="n">
         <v>44006.63606481482</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -26217,7 +26181,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="3" t="n">
         <v>44006.63607180556</v>
       </c>
       <c r="I88" t="inlineStr">
@@ -26514,10 +26478,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>44006.64055555555</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="3" t="n">
         <v>44006.64984953704</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -26541,7 +26505,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H89" s="2" t="n">
+      <c r="H89" s="3" t="n">
         <v>44006.64985623843</v>
       </c>
       <c r="I89" t="inlineStr">
@@ -26727,10 +26691,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>44007.2303125</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="3" t="n">
         <v>44007.24368055556</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -26754,7 +26718,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="3" t="n">
         <v>44007.24370603009</v>
       </c>
       <c r="I90" t="inlineStr">
@@ -27051,10 +27015,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>44007.27042824074</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="3" t="n">
         <v>44007.28114583333</v>
       </c>
       <c r="C91" t="inlineStr">
@@ -27078,7 +27042,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H91" s="2" t="n">
+      <c r="H91" s="3" t="n">
         <v>44007.28117452547</v>
       </c>
       <c r="I91" t="inlineStr">
@@ -27395,10 +27359,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>44000.34863425926</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="3" t="n">
         <v>44000.35769675926</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -27422,7 +27386,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="3" t="n">
         <v>44007.35771760417</v>
       </c>
       <c r="I92" t="inlineStr">
@@ -27728,10 +27692,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>44000.43295138889</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="3" t="n">
         <v>44000.44153935185</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -27755,7 +27719,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H93" s="2" t="n">
+      <c r="H93" s="3" t="n">
         <v>44007.44184378472</v>
       </c>
       <c r="I93" t="inlineStr">
@@ -28066,10 +28030,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>44007.45195601852</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="3" t="n">
         <v>44007.47261574074</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -28093,7 +28057,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H94" s="2" t="n">
+      <c r="H94" s="3" t="n">
         <v>44007.47262640046</v>
       </c>
       <c r="I94" t="inlineStr">
@@ -28388,7 +28352,7 @@
           <t>Yes, I think we should include other partners:</t>
         </is>
       </c>
-      <c r="EX94" s="3" t="inlineStr">
+      <c r="EX94" t="inlineStr">
         <is>
           <t>https://foodexeter.org.uk/ - May be good to speak to Food Exeter.</t>
         </is>
@@ -28400,10 +28364,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>44000.47954861111</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="3" t="n">
         <v>44000.48778935185</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -28427,7 +28391,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H95" s="2" t="n">
+      <c r="H95" s="3" t="n">
         <v>44007.48788097222</v>
       </c>
       <c r="I95" t="inlineStr">
@@ -28713,10 +28677,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>44007.99472222223</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="3" t="n">
         <v>44008.00810185185</v>
       </c>
       <c r="C96" t="inlineStr">
@@ -28740,7 +28704,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H96" s="2" t="n">
+      <c r="H96" s="3" t="n">
         <v>44008.00812550926</v>
       </c>
       <c r="I96" t="inlineStr">
@@ -29067,10 +29031,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>44008.07453703704</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="3" t="n">
         <v>44008.07853009259</v>
       </c>
       <c r="C97" t="inlineStr">
@@ -29094,7 +29058,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H97" s="2" t="n">
+      <c r="H97" s="3" t="n">
         <v>44008.07854053241</v>
       </c>
       <c r="I97" t="inlineStr">
@@ -29280,10 +29244,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>44001.18715277778</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="3" t="n">
         <v>44001.18856481482</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -29307,7 +29271,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H98" s="2" t="n">
+      <c r="H98" s="3" t="n">
         <v>44008.18859829861</v>
       </c>
       <c r="I98" t="inlineStr">
@@ -29372,10 +29336,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>44001.17175925926</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="3" t="n">
         <v>44001.26643518519</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -29399,7 +29363,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H99" s="2" t="n">
+      <c r="H99" s="3" t="n">
         <v>44008.26671688657</v>
       </c>
       <c r="I99" t="inlineStr">
@@ -29675,10 +29639,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>44008.54596064815</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="3" t="n">
         <v>44008.56940972222</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -29702,7 +29666,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H100" s="3" t="n">
         <v>44008.56944116898</v>
       </c>
       <c r="I100" t="inlineStr">
@@ -30064,10 +30028,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>44009.04648148148</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="3" t="n">
         <v>44009.05774305556</v>
       </c>
       <c r="C101" t="inlineStr">
@@ -30091,7 +30055,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H101" s="3" t="n">
         <v>44009.05777199074</v>
       </c>
       <c r="I101" t="inlineStr">
@@ -30297,10 +30261,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>44009.13759259259</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="3" t="n">
         <v>44009.15219907407</v>
       </c>
       <c r="C102" t="inlineStr">
@@ -30324,7 +30288,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H102" s="2" t="n">
+      <c r="H102" s="3" t="n">
         <v>44009.15221150463</v>
       </c>
       <c r="I102" t="inlineStr">
@@ -30641,10 +30605,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>44009.1459375</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="3" t="n">
         <v>44009.15364583334</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -30668,7 +30632,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H103" s="2" t="n">
+      <c r="H103" s="3" t="n">
         <v>44009.1536537963</v>
       </c>
       <c r="I103" t="inlineStr">
@@ -30884,10 +30848,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>44009.15041666666</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="3" t="n">
         <v>44009.15559027778</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -30911,7 +30875,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H104" s="2" t="n">
+      <c r="H104" s="3" t="n">
         <v>44009.15559976852</v>
       </c>
       <c r="I104" t="inlineStr">
@@ -31107,10 +31071,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>44009.14599537037</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="3" t="n">
         <v>44009.15890046296</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -31134,7 +31098,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H105" s="2" t="n">
+      <c r="H105" s="3" t="n">
         <v>44009.15891304398</v>
       </c>
       <c r="I105" t="inlineStr">
@@ -31481,10 +31445,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>44009.17283564815</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="3" t="n">
         <v>44009.18762731482</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -31508,7 +31472,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H106" s="3" t="n">
         <v>44009.18763869213</v>
       </c>
       <c r="I106" t="inlineStr">
@@ -31875,10 +31839,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>44009.17994212963</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="3" t="n">
         <v>44009.19032407407</v>
       </c>
       <c r="C107" t="inlineStr">
@@ -31902,7 +31866,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="3" t="n">
         <v>44009.19033064815</v>
       </c>
       <c r="I107" t="inlineStr">
@@ -32224,10 +32188,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>44009.1796412037</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="3" t="n">
         <v>44009.19164351852</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -32251,7 +32215,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H108" s="3" t="n">
         <v>44009.19167067129</v>
       </c>
       <c r="I108" t="inlineStr">
@@ -32588,10 +32552,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>44009.25565972222</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="3" t="n">
         <v>44009.26841435185</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -32615,7 +32579,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H109" s="2" t="n">
+      <c r="H109" s="3" t="n">
         <v>44009.26843839121</v>
       </c>
       <c r="I109" t="inlineStr">
@@ -32934,10 +32898,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>44009.27064814815</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="3" t="n">
         <v>44009.2733912037</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -32961,7 +32925,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H110" s="2" t="n">
+      <c r="H110" s="3" t="n">
         <v>44009.27340471065</v>
       </c>
       <c r="I110" t="inlineStr">
@@ -33147,10 +33111,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>44009.27626157407</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="3" t="n">
         <v>44009.28289351852</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -33174,7 +33138,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H111" s="2" t="n">
+      <c r="H111" s="3" t="n">
         <v>44009.28292166667</v>
       </c>
       <c r="I111" t="inlineStr">
@@ -33360,10 +33324,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>44009.37466435185</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="3" t="n">
         <v>44009.37847222222</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -33387,7 +33351,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H112" s="2" t="n">
+      <c r="H112" s="3" t="n">
         <v>44009.37848550926</v>
       </c>
       <c r="I112" t="inlineStr">
@@ -33563,10 +33527,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>44009.38021990741</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="3" t="n">
         <v>44009.38452546296</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -33590,7 +33554,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H113" s="2" t="n">
+      <c r="H113" s="3" t="n">
         <v>44009.3845305787</v>
       </c>
       <c r="I113" t="inlineStr">
@@ -33781,10 +33745,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>44009.3715162037</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="3" t="n">
         <v>44009.38481481482</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -33808,7 +33772,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H114" s="2" t="n">
+      <c r="H114" s="3" t="n">
         <v>44009.3848265162</v>
       </c>
       <c r="I114" t="inlineStr">
@@ -34090,10 +34054,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>44009.37738425926</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="3" t="n">
         <v>44009.38667824074</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -34117,7 +34081,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H115" s="2" t="n">
+      <c r="H115" s="3" t="n">
         <v>44009.38668607639</v>
       </c>
       <c r="I115" t="inlineStr">
@@ -34424,10 +34388,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>44009.38648148148</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="3" t="n">
         <v>44009.39439814815</v>
       </c>
       <c r="C116" t="inlineStr">
@@ -34451,7 +34415,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H116" s="3" t="n">
         <v>44009.39441726852</v>
       </c>
       <c r="I116" t="inlineStr">
@@ -34672,10 +34636,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>44009.39824074074</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="3" t="n">
         <v>44009.40149305556</v>
       </c>
       <c r="C117" t="inlineStr">
@@ -34699,7 +34663,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H117" s="3" t="n">
         <v>44009.4015025</v>
       </c>
       <c r="I117" t="inlineStr">
@@ -34865,10 +34829,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>44009.46297453704</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="3" t="n">
         <v>44009.47690972222</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -34892,7 +34856,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H118" s="2" t="n">
+      <c r="H118" s="3" t="n">
         <v>44009.47693097223</v>
       </c>
       <c r="I118" t="inlineStr">
@@ -35204,10 +35168,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>44009.469375</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="3" t="n">
         <v>44009.4900462963</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -35231,7 +35195,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H119" s="2" t="n">
+      <c r="H119" s="3" t="n">
         <v>44009.49005145834</v>
       </c>
       <c r="I119" t="inlineStr">
@@ -35543,10 +35507,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>44009.49238425926</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="3" t="n">
         <v>44009.49770833334</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -35570,7 +35534,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H120" s="2" t="n">
+      <c r="H120" s="3" t="n">
         <v>44009.49771767361</v>
       </c>
       <c r="I120" t="inlineStr">
@@ -35776,10 +35740,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>44009.49877314815</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="3" t="n">
         <v>44009.50278935185</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -35803,7 +35767,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H121" s="2" t="n">
+      <c r="H121" s="3" t="n">
         <v>44009.50281744213</v>
       </c>
       <c r="I121" t="inlineStr">
@@ -36120,10 +36084,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>44009.60120370371</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="3" t="n">
         <v>44009.60603009259</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -36147,7 +36111,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H122" s="2" t="n">
+      <c r="H122" s="3" t="n">
         <v>44009.60604369213</v>
       </c>
       <c r="I122" t="inlineStr">
@@ -36343,10 +36307,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>44009.63644675926</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="3" t="n">
         <v>44009.65055555556</v>
       </c>
       <c r="C123" t="inlineStr">
@@ -36370,7 +36334,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H123" s="2" t="n">
+      <c r="H123" s="3" t="n">
         <v>44009.6505800926</v>
       </c>
       <c r="I123" t="inlineStr">
@@ -36682,10 +36646,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>44009.66920138889</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="3" t="n">
         <v>44009.67439814815</v>
       </c>
       <c r="C124" t="inlineStr">
@@ -36709,7 +36673,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H124" s="2" t="n">
+      <c r="H124" s="3" t="n">
         <v>44009.67442444444</v>
       </c>
       <c r="I124" t="inlineStr">
@@ -36925,10 +36889,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>44010.01440972222</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="3" t="n">
         <v>44010.02114583334</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -36952,7 +36916,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H125" s="2" t="n">
+      <c r="H125" s="3" t="n">
         <v>44010.0211721875</v>
       </c>
       <c r="I125" t="inlineStr">
@@ -37219,10 +37183,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>44010.06159722222</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="3" t="n">
         <v>44010.0747337963</v>
       </c>
       <c r="C126" t="inlineStr">
@@ -37246,7 +37210,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H126" s="2" t="n">
+      <c r="H126" s="3" t="n">
         <v>44010.07474798611</v>
       </c>
       <c r="I126" t="inlineStr">
@@ -37588,10 +37552,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>44003.16276620371</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="3" t="n">
         <v>44003.16849537037</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -37615,7 +37579,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H127" s="2" t="n">
+      <c r="H127" s="3" t="n">
         <v>44010.16856733796</v>
       </c>
       <c r="I127" t="inlineStr">
@@ -37926,10 +37890,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>44010.26371527778</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="3" t="n">
         <v>44010.28630787037</v>
       </c>
       <c r="C128" t="inlineStr">
@@ -37953,7 +37917,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H128" s="2" t="n">
+      <c r="H128" s="3" t="n">
         <v>44010.28632640046</v>
       </c>
       <c r="I128" t="inlineStr">
@@ -38280,10 +38244,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>44010.36724537037</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="3" t="n">
         <v>44010.38826388889</v>
       </c>
       <c r="C129" t="inlineStr">
@@ -38307,7 +38271,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H129" s="2" t="n">
+      <c r="H129" s="3" t="n">
         <v>44010.38829203704</v>
       </c>
       <c r="I129" t="inlineStr">
@@ -38669,10 +38633,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>44010.38564814815</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="3" t="n">
         <v>44010.41444444445</v>
       </c>
       <c r="C130" t="inlineStr">
@@ -38696,7 +38660,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H130" s="2" t="n">
+      <c r="H130" s="3" t="n">
         <v>44010.41446903935</v>
       </c>
       <c r="I130" t="inlineStr">
@@ -39013,10 +38977,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>44010.40210648148</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="3" t="n">
         <v>44010.41628472223</v>
       </c>
       <c r="C131" t="inlineStr">
@@ -39040,7 +39004,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H131" s="2" t="n">
+      <c r="H131" s="3" t="n">
         <v>44010.4162921875</v>
       </c>
       <c r="I131" t="inlineStr">
@@ -39241,10 +39205,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>44010.42932870371</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="3" t="n">
         <v>44010.45103009259</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -39268,7 +39232,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H132" s="2" t="n">
+      <c r="H132" s="3" t="n">
         <v>44010.45103556713</v>
       </c>
       <c r="I132" t="inlineStr">
@@ -39640,10 +39604,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>44010.43822916667</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="3" t="n">
         <v>44010.45895833334</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -39667,7 +39631,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H133" s="2" t="n">
+      <c r="H133" s="3" t="n">
         <v>44010.45898496528</v>
       </c>
       <c r="I133" t="inlineStr">
@@ -39989,10 +39953,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>44010.50277777778</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="3" t="n">
         <v>44010.51094907407</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -40016,7 +39980,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H134" s="2" t="n">
+      <c r="H134" s="3" t="n">
         <v>44010.51097420139</v>
       </c>
       <c r="I134" t="inlineStr">
@@ -40323,10 +40287,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>44010.52278935185</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="3" t="n">
         <v>44010.53005787037</v>
       </c>
       <c r="C135" t="inlineStr">
@@ -40350,7 +40314,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H135" s="2" t="n">
+      <c r="H135" s="3" t="n">
         <v>44010.53008806713</v>
       </c>
       <c r="I135" t="inlineStr">
@@ -40697,10 +40661,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>44010.54006944445</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="3" t="n">
         <v>44010.54451388889</v>
       </c>
       <c r="C136" t="inlineStr">
@@ -40724,7 +40688,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H136" s="2" t="n">
+      <c r="H136" s="3" t="n">
         <v>44010.54453552084</v>
       </c>
       <c r="I136" t="inlineStr">
@@ -40925,10 +40889,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>44010.54803240741</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="3" t="n">
         <v>44010.57497685185</v>
       </c>
       <c r="C137" t="inlineStr">
@@ -40952,7 +40916,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H137" s="2" t="n">
+      <c r="H137" s="3" t="n">
         <v>44010.57500262732</v>
       </c>
       <c r="I137" t="inlineStr">
@@ -41274,10 +41238,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>44010.56271990741</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="3" t="n">
         <v>44010.59061342593</v>
       </c>
       <c r="C138" t="inlineStr">
@@ -41301,7 +41265,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H138" s="2" t="n">
+      <c r="H138" s="3" t="n">
         <v>44010.59062045139</v>
       </c>
       <c r="I138" t="inlineStr">
@@ -41678,10 +41642,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>44011.05789351852</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="3" t="n">
         <v>44011.06240740741</v>
       </c>
       <c r="C139" t="inlineStr">
@@ -41705,7 +41669,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H139" s="2" t="n">
+      <c r="H139" s="3" t="n">
         <v>44011.06241351852</v>
       </c>
       <c r="I139" t="inlineStr">
@@ -41906,10 +41870,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>44004.40315972222</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="3" t="n">
         <v>44004.413125</v>
       </c>
       <c r="C140" t="inlineStr">
@@ -41933,7 +41897,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H140" s="2" t="n">
+      <c r="H140" s="3" t="n">
         <v>44011.41329337963</v>
       </c>
       <c r="I140" t="inlineStr">
@@ -42224,10 +42188,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>44011.43393518519</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="3" t="n">
         <v>44011.43780092592</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -42251,7 +42215,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H141" s="2" t="n">
+      <c r="H141" s="3" t="n">
         <v>44011.43782090278</v>
       </c>
       <c r="I141" t="inlineStr">
@@ -42422,10 +42386,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>44005.17726851852</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="3" t="n">
         <v>44005.1797337963</v>
       </c>
       <c r="C142" t="inlineStr">
@@ -42449,7 +42413,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H142" s="2" t="n">
+      <c r="H142" s="3" t="n">
         <v>44012.17978643518</v>
       </c>
       <c r="I142" t="inlineStr">
@@ -42514,10 +42478,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>44005.21966435185</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="3" t="n">
         <v>44005.22035879629</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -42541,7 +42505,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H143" s="2" t="n">
+      <c r="H143" s="3" t="n">
         <v>44012.22050604167</v>
       </c>
       <c r="I143" t="inlineStr">
@@ -42616,10 +42580,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>44005.22525462963</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="3" t="n">
         <v>44005.2304050926</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -42643,7 +42607,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H144" s="2" t="n">
+      <c r="H144" s="3" t="n">
         <v>44012.23042591435</v>
       </c>
       <c r="I144" t="inlineStr">
@@ -42723,10 +42687,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>44005.27158564814</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="3" t="n">
         <v>44005.28185185185</v>
       </c>
       <c r="C145" t="inlineStr">
@@ -42750,7 +42714,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H145" s="2" t="n">
+      <c r="H145" s="3" t="n">
         <v>44012.28188079861</v>
       </c>
       <c r="I145" t="inlineStr">
@@ -43066,10 +43030,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>44005.31815972222</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="3" t="n">
         <v>44005.32530092593</v>
       </c>
       <c r="C146" t="inlineStr">
@@ -43093,7 +43057,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H146" s="2" t="n">
+      <c r="H146" s="3" t="n">
         <v>44012.3254781713</v>
       </c>
       <c r="I146" t="inlineStr">
@@ -43369,10 +43333,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>44005.48969907407</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="3" t="n">
         <v>44005.49052083334</v>
       </c>
       <c r="C147" t="inlineStr">
@@ -43396,7 +43360,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H147" s="2" t="n">
+      <c r="H147" s="3" t="n">
         <v>44012.49068449074</v>
       </c>
       <c r="I147" t="inlineStr">
@@ -43476,10 +43440,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>44005.55701388889</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="3" t="n">
         <v>44005.56435185186</v>
       </c>
       <c r="C148" t="inlineStr">
@@ -43503,7 +43467,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H148" s="2" t="n">
+      <c r="H148" s="3" t="n">
         <v>44012.56472260417</v>
       </c>
       <c r="I148" t="inlineStr">
@@ -43748,10 +43712,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>44006.26836805556</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="3" t="n">
         <v>44006.2695949074</v>
       </c>
       <c r="C149" t="inlineStr">
@@ -43775,7 +43739,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H149" s="2" t="n">
+      <c r="H149" s="3" t="n">
         <v>44013.26964234954</v>
       </c>
       <c r="I149" t="inlineStr">
@@ -43850,10 +43814,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>44006.28762731481</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="3" t="n">
         <v>44006.28946759259</v>
       </c>
       <c r="C150" t="inlineStr">
@@ -43877,7 +43841,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H150" s="2" t="n">
+      <c r="H150" s="3" t="n">
         <v>44013.28958792824</v>
       </c>
       <c r="I150" t="inlineStr">
@@ -43972,10 +43936,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>44006.41518518519</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="3" t="n">
         <v>44006.51568287037</v>
       </c>
       <c r="C151" t="inlineStr">
@@ -43999,7 +43963,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H151" s="2" t="n">
+      <c r="H151" s="3" t="n">
         <v>44013.51583773148</v>
       </c>
       <c r="I151" t="inlineStr">
@@ -44219,10 +44183,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>44006.56116898148</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="3" t="n">
         <v>44006.56635416667</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -44246,7 +44210,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H152" s="2" t="n">
+      <c r="H152" s="3" t="n">
         <v>44013.56647885417</v>
       </c>
       <c r="I152" t="inlineStr">
@@ -44411,10 +44375,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>44014.54056712963</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="3" t="n">
         <v>44014.54439814815</v>
       </c>
       <c r="C153" t="inlineStr">
@@ -44438,7 +44402,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H153" s="2" t="n">
+      <c r="H153" s="3" t="n">
         <v>44014.54442222222</v>
       </c>
       <c r="I153" t="inlineStr">
@@ -44634,10 +44598,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>44015.14233796296</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="3" t="n">
         <v>44015.15539351852</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -44661,7 +44625,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H154" s="2" t="n">
+      <c r="H154" s="3" t="n">
         <v>44015.15540596065</v>
       </c>
       <c r="I154" t="inlineStr">
@@ -44998,10 +44962,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>44009.40043981482</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="3" t="n">
         <v>44009.40201388889</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -45025,7 +44989,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H155" s="2" t="n">
+      <c r="H155" s="3" t="n">
         <v>44016.40239493056</v>
       </c>
       <c r="I155" t="inlineStr">
@@ -45125,10 +45089,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>44009.52719907407</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="3" t="n">
         <v>44009.5427199074</v>
       </c>
       <c r="C156" t="inlineStr">
@@ -45152,7 +45116,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H156" s="2" t="n">
+      <c r="H156" s="3" t="n">
         <v>44016.54290755787</v>
       </c>
       <c r="I156" t="inlineStr">
@@ -45478,10 +45442,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>44011.21782407408</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="3" t="n">
         <v>44011.23130787037</v>
       </c>
       <c r="C157" t="inlineStr">
@@ -45505,7 +45469,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H157" s="2" t="n">
+      <c r="H157" s="3" t="n">
         <v>44018.23156723379</v>
       </c>
       <c r="I157" t="inlineStr">
@@ -45841,10 +45805,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>44035.13383101852</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="3" t="n">
         <v>44035.1367824074</v>
       </c>
       <c r="C158" t="inlineStr">
@@ -45868,7 +45832,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H158" s="2" t="n">
+      <c r="H158" s="3" t="n">
         <v>44035.13679855324</v>
       </c>
       <c r="I158" t="inlineStr">
@@ -46054,10 +46018,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>44034.15829861111</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="3" t="n">
         <v>44034.16278935185</v>
       </c>
       <c r="C159" t="inlineStr">
@@ -46081,7 +46045,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H159" s="2" t="n">
+      <c r="H159" s="3" t="n">
         <v>44041.16314137731</v>
       </c>
       <c r="I159" t="inlineStr">
@@ -46126,10 +46090,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>44083.49642361111</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="3" t="n">
         <v>44083.513125</v>
       </c>
       <c r="C160" t="inlineStr">
@@ -46153,7 +46117,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H160" s="2" t="n">
+      <c r="H160" s="3" t="n">
         <v>44083.5131393287</v>
       </c>
       <c r="I160" t="inlineStr">
@@ -46535,10 +46499,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="EX94" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -46557,12 +46518,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -46688,12 +46649,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -46819,12 +46780,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -46950,12 +46911,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -47020,6 +46981,32 @@
       </c>
       <c r="B7" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Q36_SUMMARY</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SurveyData/School_1a_2021.xlsx
+++ b/SurveyData/School_1a_2021.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q36_SENTIMENTS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Freq_Q28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Freq_Q30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46548,7 +46549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46559,113 +46560,132 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>Phrase</t>
+          <t>Positive Responses</t>
         </is>
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Negative or Neutral Responses</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>133</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>meat should be 'grass fed'</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>90</v>
+          <t>I think if its very appetizing to fussy pallets then yes absolutely</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>83</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>if they are suitable for children's taste</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>offer only high quality grass-fed meat options</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>73</v>
+          <t>Meat free yes, but not offering alternatives as meat replacement like tofu</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>offer added-sugar free days</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>60</v>
+          <t>It does to me as an adult, but we have to be mindful of food waste. But in principle I'm mostly supportive of meat free days</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>offer fruit only</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>51</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Because some children might need to have a school dinner on one particular day due to parents home/ work situation, and therefore should have a meat option</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>or fruit-based puddings</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>51</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>School catering of decent meat free food is questionable</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>32</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>That feels like we are imposing a choice on children. There are plenty of fish possibilities to replace meat and also quorn  etc</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>please specify below:</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>32</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sometimes vegetarian options are highly processed ‘meat alternatives’ rather than wholefoods</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14</v>
+          <t>Definitely. We only eat meat twice a week at home</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>I think this should always be on offer as well as meat for whoever needs these options</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>see above</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>It depends on whether the other options available are appealing to the pupils.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>If they are nutritious, tasty, in line with what’s required nationally and globally to address climate change, and their provision is not used to preach or make children feel guilty about eating meat/dairy products at other times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But not to replace them with meat replacements. E.g. quorn nuggets. </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Some vegetation options are unpalatable </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Only if the other option is not just cheese based.</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -46702,91 +46722,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>contain locally sourced ingredients</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>minimise waste</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils</t>
+          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>contain  seasonally sourced ingredients</t>
+          <t>offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>meet all dietary requirements</t>
+          <t>offer added-sugar free days</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>are cooked from scratch in the school kitchen</t>
+          <t>offer fruit only</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+          <t>or fruit-based puddings</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>contain organically sourced ingredients</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options</t>
+          <t>please specify below:</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -46796,7 +46816,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -46833,101 +46853,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>contain locally sourced ingredients</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>minimise waste</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>should be enjoyed by pupils</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>contain  seasonally sourced ingredients</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>meet all dietary requirements</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>are cooked from scratch in the school kitchen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>contain organically sourced ingredients</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>offer high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -46936,6 +46956,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
